--- a/18회차_실습체크리스트_박다빈.xlsx
+++ b/18회차_실습체크리스트_박다빈.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\비전공_18회차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bootcamp\problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE9EA48-1547-4DFB-A160-B87D468C4318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="3030" yWindow="-14970" windowWidth="12885" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -428,10 +420,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">git 주소 : </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -441,13 +429,17 @@
   </si>
   <si>
     <t>이름 : 홍길동</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 주소 : https://github.com/lego812</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -743,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,9 +787,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,7 +811,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,11 +840,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,23 +856,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,7 +880,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -911,15 +900,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,7 +916,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -983,15 +972,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -999,7 +988,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1011,13 +1000,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1078,13 +1067,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1145,13 +1134,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1212,13 +1201,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1279,13 +1268,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1346,13 +1335,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1413,13 +1402,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1480,13 +1469,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1547,13 +1536,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1614,13 +1603,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1681,13 +1670,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1748,13 +1737,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1815,13 +1804,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1882,13 +1871,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1949,13 +1938,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2016,13 +2005,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2083,13 +2072,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2150,13 +2139,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2217,13 +2206,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2284,13 +2273,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2351,13 +2340,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2418,13 +2407,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2485,13 +2474,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2552,13 +2541,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2619,13 +2608,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2686,13 +2675,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2753,13 +2742,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2820,13 +2809,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2887,13 +2876,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2954,13 +2943,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3021,13 +3010,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3088,13 +3077,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3155,13 +3144,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3222,13 +3211,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3289,13 +3278,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3356,13 +3345,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3423,13 +3412,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3490,13 +3479,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3557,13 +3546,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3573,7 +3562,7 @@
                   <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B73A9C-E2C5-F31B-C6D1-B54FF2EF9F79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3624,13 +3613,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3640,7 +3629,7 @@
                   <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45044E0-61DF-675F-0B87-F63E75BBBF83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3685,10 +3674,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3987,22 +3972,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.625" customWidth="1"/>
-    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.58203125" customWidth="1"/>
+    <col min="5" max="6" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5">
+    <row r="1" spans="1:6" ht="20.5">
       <c r="A1" s="12" t="s">
         <v>67</v>
       </c>
@@ -4013,26 +3998,26 @@
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="21" t="s">
+      <c r="A3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -4055,7 +4040,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -4071,7 +4056,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -4085,7 +4070,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4099,7 +4084,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -4113,7 +4098,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -4127,7 +4112,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
@@ -4141,7 +4126,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4157,7 +4142,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="9" t="s">
         <v>69</v>
       </c>
@@ -4171,7 +4156,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
@@ -4185,7 +4170,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="22"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
@@ -4199,7 +4184,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="22"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -4213,7 +4198,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -4227,7 +4212,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
@@ -4241,7 +4226,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
@@ -4255,7 +4240,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -4269,7 +4254,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
@@ -4283,7 +4268,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
@@ -4297,7 +4282,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
@@ -4311,7 +4296,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="22"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
@@ -4325,7 +4310,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="22"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
@@ -4347,28 +4332,28 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="A27" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -4378,13 +4363,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4417,13 +4402,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4439,13 +4424,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4461,13 +4446,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4483,13 +4468,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4505,13 +4490,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4527,13 +4512,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4549,13 +4534,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4571,13 +4556,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4593,13 +4578,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4615,13 +4600,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4637,13 +4622,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4659,13 +4644,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4681,13 +4666,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4703,13 +4688,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4725,13 +4710,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4747,13 +4732,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4769,13 +4754,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4791,13 +4776,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4813,13 +4798,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4835,13 +4820,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4857,13 +4842,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4879,13 +4864,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4901,13 +4886,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4923,13 +4908,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4945,13 +4930,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4967,13 +4952,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4989,13 +4974,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5011,13 +4996,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5033,13 +5018,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5055,13 +5040,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5077,13 +5062,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5099,13 +5084,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5121,13 +5106,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5143,13 +5128,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5165,13 +5150,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5187,13 +5172,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5209,13 +5194,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5231,13 +5216,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5253,13 +5238,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5275,13 +5260,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
